--- a/test.xlsx
+++ b/test.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,7 +409,7 @@
         <v>Series name</v>
       </c>
       <c r="B1" s="1" t="str">
-        <v>ICC Womens T20 World Cup 2023</v>
+        <v>England tour of New Zealand, 2023</v>
       </c>
     </row>
     <row r="2">
@@ -417,7 +417,7 @@
         <v>Description</v>
       </c>
       <c r="B2" s="1" t="str">
-        <v>ICC Womens T20 World Cup 2023</v>
+        <v>England tour of New Zealand, 2023</v>
       </c>
     </row>
     <row r="3">
@@ -425,7 +425,7 @@
         <v>Match state</v>
       </c>
       <c r="B3" s="1" t="str">
-        <v>In Progress</v>
+        <v>Complete</v>
       </c>
     </row>
     <row r="4">
@@ -433,7 +433,7 @@
         <v>Match status</v>
       </c>
       <c r="B4" s="1" t="str">
-        <v>Australia Women opt to bat</v>
+        <v>New Zealand opt to bowl</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>Winner</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>Australia Women</v>
+        <v>New Zealand</v>
       </c>
     </row>
     <row r="7">
@@ -457,7 +457,7 @@
         <v>Decision</v>
       </c>
       <c r="B7" s="1" t="str">
-        <v>Batting</v>
+        <v>Bowling</v>
       </c>
     </row>
     <row r="8">
@@ -473,7 +473,7 @@
         <v>Name</v>
       </c>
       <c r="B9" s="1" t="str">
-        <v>South Africa Women</v>
+        <v>England</v>
       </c>
     </row>
     <row r="10">
@@ -481,7 +481,7 @@
         <v>Score</v>
       </c>
       <c r="B10" s="1">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -489,7 +489,7 @@
         <v>Wicket</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -497,7 +497,7 @@
         <v>Current run rate</v>
       </c>
       <c r="B12" s="1">
-        <v>5.85</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         <v>Required run rate</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -513,7 +513,7 @@
         <v>Overs</v>
       </c>
       <c r="B14" s="1">
-        <v>13.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>Recent overs</v>
       </c>
       <c r="B15" s="1" t="str">
-        <v>... 0  | 1 0 N1 2 N2 6 0 0  | 1 1 4</v>
+        <v>... 0 1 0 4  | 0 0 0 0 0 0  | 0 W</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>Last wicket</v>
       </c>
       <c r="B16" s="1" t="str">
-        <v>Sune Luus  run out (Mooney/Healy)  2(5)  - 54/3 in 10.4 ov.</v>
+        <v>James Anderson  c Blundell b Wagner 4(6)  - 256/10 in 74.2 ov.</v>
       </c>
     </row>
     <row r="17">
@@ -539,7 +539,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="str">
-        <v>Last 5 overs</v>
+        <v>Last 10 overs</v>
       </c>
     </row>
     <row r="19">
@@ -558,26 +558,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="str">
-        <v>Last 3 overs</v>
-      </c>
-    </row>
     <row r="22">
       <c r="A22" s="1" t="str">
         <v>Runs</v>
       </c>
-      <c r="B22" s="1">
-        <v>25</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="str">
         <v>Wickets</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="str">
@@ -592,7 +581,7 @@
         <v>Name</v>
       </c>
       <c r="B25" s="1" t="str">
-        <v>Chloe Tryon</v>
+        <v>Jack Leach</v>
       </c>
     </row>
     <row r="26">
@@ -600,7 +589,7 @@
         <v>Runs</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -608,7 +597,7 @@
         <v>Balls</v>
       </c>
       <c r="B27" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -616,7 +605,7 @@
         <v>Dot</v>
       </c>
       <c r="B28" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -624,7 +613,7 @@
         <v>Fours</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -640,7 +629,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B31" s="1">
-        <v>90.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="32">
@@ -656,7 +645,7 @@
         <v>Name</v>
       </c>
       <c r="B33" s="1" t="str">
-        <v>Laura Wolvaardt</v>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -664,7 +653,7 @@
         <v>Runs</v>
       </c>
       <c r="B34" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -672,7 +661,7 @@
         <v>Balls</v>
       </c>
       <c r="B35" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -680,7 +669,7 @@
         <v>Dot</v>
       </c>
       <c r="B36" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -688,7 +677,7 @@
         <v>Fours</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -696,7 +685,7 @@
         <v>Sixes</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -704,7 +693,7 @@
         <v>StrikeRate</v>
       </c>
       <c r="B39" s="1">
-        <v>107.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -717,7 +706,7 @@
         <v>Balls</v>
       </c>
       <c r="B41" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -725,7 +714,7 @@
         <v>Runs</v>
       </c>
       <c r="B42" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -738,7 +727,7 @@
         <v>Name</v>
       </c>
       <c r="B44" s="1" t="str">
-        <v>Georgia Wareham</v>
+        <v>Neil Wagner</v>
       </c>
     </row>
     <row r="45">
@@ -762,7 +751,7 @@
         <v>Overs</v>
       </c>
       <c r="B47" s="1">
-        <v>1.3</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="48">
@@ -770,7 +759,7 @@
         <v>Runs</v>
       </c>
       <c r="B48" s="1">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
@@ -778,7 +767,7 @@
         <v>Wides</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -786,7 +775,7 @@
         <v>Wickets</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -794,7 +783,7 @@
         <v>Economy</v>
       </c>
       <c r="B51" s="1">
-        <v>8</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="52">
@@ -807,7 +796,7 @@
         <v>Name</v>
       </c>
       <c r="B53" s="1" t="str">
-        <v>Tahlia McGrath</v>
+        <v>Tim Southee</v>
       </c>
     </row>
     <row r="54">
@@ -815,7 +804,7 @@
         <v>Maidens</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -823,7 +812,7 @@
         <v>No Balls</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -831,7 +820,7 @@
         <v>Overs</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="57">
@@ -839,7 +828,7 @@
         <v>Runs</v>
       </c>
       <c r="B57" s="1">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
@@ -847,7 +836,7 @@
         <v>Wides</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -855,7 +844,7 @@
         <v>Wickets</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -863,13 +852,289 @@
         <v>Economy</v>
       </c>
       <c r="B60" s="1">
-        <v>8.5</v>
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="str">
+        <v>4 Inning</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <v>England</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B64" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B66" s="1">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B69" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="str">
+        <v>3 Inning</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B73" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B74" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B75" s="1">
+        <v>162.3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B78" s="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="str">
+        <v>2 Inning</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B82" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B83" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B84" s="1">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B87" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="str">
+        <v>1 Inning</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="str">
+        <v>Inning No</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="str">
+        <v>Batting Team</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <v>England</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="str">
+        <v>Score</v>
+      </c>
+      <c r="B91" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="str">
+        <v>Wickets</v>
+      </c>
+      <c r="B92" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="str">
+        <v>Overs</v>
+      </c>
+      <c r="B93" s="1">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="str">
+        <v>Declared</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="str">
+        <v>Follow on</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="str">
+        <v>Balls</v>
+      </c>
+      <c r="B96" s="1">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H96"/>
   </ignoredErrors>
 </worksheet>
 </file>